--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.dordolo\Desktop\Adquisidor\PCB\Modulo_entradas_digitales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\MSE\Adquisidor\Modulo_entradas_digitales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="entradas_digitales" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Eeschema (5.0.2)-1</t>
   </si>
@@ -211,12 +211,45 @@
   <si>
     <t>Component Count:</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>1655-1967-1-ND</t>
+  </si>
+  <si>
+    <t>2019-RK73B2ATTD103JCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0805JT2K20CT-ND</t>
+  </si>
+  <si>
+    <t>296-38905-1-ND</t>
+  </si>
+  <si>
+    <t>CD4021</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B104KACNNNC/1276-1099-1-ND/3889185</t>
+  </si>
+  <si>
+    <t>1276-1099-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/chip-quik-inc/TS391AX10/TS391AX10-ND/7802226</t>
+  </si>
+  <si>
+    <t>TS391AX10-ND</t>
+  </si>
+  <si>
+    <t>160-2041-5-ND</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +405,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -717,7 +756,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,143 +775,59 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -948,6 +903,114 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -962,24 +1025,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:H18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
-  <autoFilter ref="A6:H18"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Ref" dataDxfId="2"/>
-    <tableColumn id="2" name="Qty" dataDxfId="0"/>
-    <tableColumn id="3" name="Value" dataDxfId="1"/>
-    <tableColumn id="4" name="Part" dataDxfId="9"/>
-    <tableColumn id="5" name="Footprint" dataDxfId="8"/>
-    <tableColumn id="6" name="Datasheet" dataDxfId="7"/>
-    <tableColumn id="7" name="Description" dataDxfId="6"/>
-    <tableColumn id="8" name="Vendor" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:I19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A6:I19"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Ref" dataDxfId="8"/>
+    <tableColumn id="2" name="Qty" dataDxfId="7"/>
+    <tableColumn id="3" name="Value" dataDxfId="6"/>
+    <tableColumn id="4" name="Part" dataDxfId="5"/>
+    <tableColumn id="5" name="Footprint" dataDxfId="4"/>
+    <tableColumn id="9" name="Column1" dataDxfId="3"/>
+    <tableColumn id="6" name="Datasheet" dataDxfId="2"/>
+    <tableColumn id="7" name="Description" dataDxfId="1"/>
+    <tableColumn id="8" name="Vendor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1241,39 +1305,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B4">
-        <f>SUM(B7:B18)</f>
-        <v>63</v>
+        <f>SUM(B7:B19)</f>
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1290,16 +1354,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1316,14 +1383,17 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -1339,15 +1409,16 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -1364,14 +1435,17 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -1387,15 +1461,16 @@
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1411,13 +1486,14 @@
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1433,13 +1509,14 @@
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1455,13 +1532,14 @@
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1477,13 +1555,14 @@
       <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1500,14 +1579,17 @@
         <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1524,14 +1606,17 @@
         <v>38</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -1548,14 +1633,17 @@
         <v>46</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1572,15 +1660,37 @@
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
